--- a/Data_preparation/datasets/final_data/LATTICE_SEMICOND.xlsx
+++ b/Data_preparation/datasets/final_data/LATTICE_SEMICOND.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="44">
   <si>
     <t>Ticker</t>
   </si>
@@ -146,117 +146,6 @@
   </si>
   <si>
     <t>USD</t>
-  </si>
-  <si>
-    <t>ZBRA</t>
-  </si>
-  <si>
-    <t>TRI</t>
-  </si>
-  <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>CRM</t>
-  </si>
-  <si>
-    <t>FTNT</t>
-  </si>
-  <si>
-    <t>META</t>
-  </si>
-  <si>
-    <t>PEGA</t>
-  </si>
-  <si>
-    <t>UI</t>
-  </si>
-  <si>
-    <t>CYBR</t>
-  </si>
-  <si>
-    <t>ORCL</t>
-  </si>
-  <si>
-    <t>IBM</t>
-  </si>
-  <si>
-    <t>EBAY</t>
-  </si>
-  <si>
-    <t>TSM</t>
-  </si>
-  <si>
-    <t>VRNT</t>
-  </si>
-  <si>
-    <t>INTC</t>
-  </si>
-  <si>
-    <t>OKTA</t>
-  </si>
-  <si>
-    <t>SNAP</t>
-  </si>
-  <si>
-    <t>MCHP</t>
-  </si>
-  <si>
-    <t>DOCU</t>
-  </si>
-  <si>
-    <t>UBER</t>
-  </si>
-  <si>
-    <t>ZS</t>
-  </si>
-  <si>
-    <t>NVDA</t>
-  </si>
-  <si>
-    <t>ADBE</t>
-  </si>
-  <si>
-    <t>HUBS</t>
-  </si>
-  <si>
-    <t>NFLX</t>
-  </si>
-  <si>
-    <t>MSFT</t>
-  </si>
-  <si>
-    <t>NOC</t>
-  </si>
-  <si>
-    <t>DDOG</t>
-  </si>
-  <si>
-    <t>DXC</t>
-  </si>
-  <si>
-    <t>PRO</t>
-  </si>
-  <si>
-    <t>MU</t>
-  </si>
-  <si>
-    <t>STX</t>
-  </si>
-  <si>
-    <t>FICO</t>
-  </si>
-  <si>
-    <t>AMBA</t>
-  </si>
-  <si>
-    <t>PATH</t>
-  </si>
-  <si>
-    <t>AMZN</t>
-  </si>
-  <si>
-    <t>NTAP</t>
   </si>
 </sst>
 </file>
@@ -763,22 +652,22 @@
         <v>42007</v>
       </c>
       <c r="D2">
-        <v>77.98999786376953</v>
+        <v>6.920000076293945</v>
       </c>
       <c r="E2">
-        <v>83.45999908447266</v>
+        <v>7.130000114440918</v>
       </c>
       <c r="F2">
-        <v>85.66000366210938</v>
+        <v>7.659999847412109</v>
       </c>
       <c r="G2">
-        <v>74.40000152587891</v>
+        <v>6.449999809265137</v>
       </c>
       <c r="H2">
-        <v>50845151</v>
+        <v>136895573</v>
       </c>
       <c r="I2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J2">
         <v>816961568</v>
@@ -888,22 +777,22 @@
         <v>42098</v>
       </c>
       <c r="D3">
-        <v>32.50155454136809</v>
+        <v>6.340000152587891</v>
       </c>
       <c r="E3">
-        <v>32.94282531738281</v>
+        <v>5.929999828338623</v>
       </c>
       <c r="F3">
-        <v>34.21047339167337</v>
+        <v>6.579999923706055</v>
       </c>
       <c r="G3">
-        <v>32.26888374560449</v>
+        <v>5.900000095367432</v>
       </c>
       <c r="H3">
-        <v>450687724</v>
+        <v>136895573</v>
       </c>
       <c r="I3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J3">
         <v>733702843</v>
@@ -1004,22 +893,22 @@
         <v>42189</v>
       </c>
       <c r="D4">
-        <v>19.36546186976121</v>
+        <v>5.929999828338623</v>
       </c>
       <c r="E4">
-        <v>20.08906555175781</v>
+        <v>4.920000076293945</v>
       </c>
       <c r="F4">
-        <v>20.242831549833</v>
+        <v>6.139999866485596</v>
       </c>
       <c r="G4">
-        <v>19.17551655018982</v>
+        <v>4.510000228881836</v>
       </c>
       <c r="H4">
-        <v>174270076</v>
+        <v>136895573</v>
       </c>
       <c r="I4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="J4">
         <v>711332395</v>
@@ -1120,22 +1009,22 @@
         <v>42280</v>
       </c>
       <c r="D5">
-        <v>68.44008297911779</v>
+        <v>3.829999923706055</v>
       </c>
       <c r="E5">
-        <v>76.90107727050781</v>
+        <v>4.579999923706055</v>
       </c>
       <c r="F5">
-        <v>78.55369160257169</v>
+        <v>4.880000114440918</v>
       </c>
       <c r="G5">
-        <v>67.96507621452463</v>
+        <v>3.569999933242798</v>
       </c>
       <c r="H5">
-        <v>952000000</v>
+        <v>136895573</v>
       </c>
       <c r="I5" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="J5">
         <v>438708814</v>
@@ -1236,22 +1125,22 @@
         <v>42371</v>
       </c>
       <c r="D6">
-        <v>6.107999801635742</v>
+        <v>6.400000095367432</v>
       </c>
       <c r="E6">
-        <v>5.627999782562256</v>
+        <v>4.860000133514404</v>
       </c>
       <c r="F6">
-        <v>6.197999954223633</v>
+        <v>6.400000095367432</v>
       </c>
       <c r="G6">
-        <v>4.728000164031982</v>
+        <v>4.019999980926514</v>
       </c>
       <c r="H6">
-        <v>766266033</v>
+        <v>136895573</v>
       </c>
       <c r="I6" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="J6">
         <v>762845978</v>
@@ -1352,22 +1241,22 @@
         <v>42462</v>
       </c>
       <c r="D7">
-        <v>113.053060611574</v>
+        <v>5.619999885559082</v>
       </c>
       <c r="E7">
-        <v>116.8595962524414</v>
+        <v>5.570000171661377</v>
       </c>
       <c r="F7">
-        <v>120.0499278661556</v>
+        <v>6.46999979019165</v>
       </c>
       <c r="G7">
-        <v>105.6586426163339</v>
+        <v>5.139999866485596</v>
       </c>
       <c r="H7">
-        <v>2168962480</v>
+        <v>136895573</v>
       </c>
       <c r="I7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="J7">
         <v>665179473</v>
@@ -1468,22 +1357,22 @@
         <v>42553</v>
       </c>
       <c r="D8">
-        <v>13.19996774679334</v>
+        <v>5.360000133514404</v>
       </c>
       <c r="E8">
-        <v>13.69067287445068</v>
+        <v>6.010000228881836</v>
       </c>
       <c r="F8">
-        <v>14.06851604737382</v>
+        <v>6.300000190734863</v>
       </c>
       <c r="G8">
-        <v>12.75833331909089</v>
+        <v>5.210000038146973</v>
       </c>
       <c r="H8">
-        <v>171080665</v>
+        <v>136895573</v>
       </c>
       <c r="I8" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="J8">
         <v>644794145</v>
@@ -1584,22 +1473,22 @@
         <v>42644</v>
       </c>
       <c r="D9">
-        <v>49.90532904401199</v>
+        <v>6.449999809265137</v>
       </c>
       <c r="E9">
-        <v>48.90722274780273</v>
+        <v>6.070000171661377</v>
       </c>
       <c r="F9">
-        <v>51.30454387702167</v>
+        <v>6.650000095367432</v>
       </c>
       <c r="G9">
-        <v>45.00807712847811</v>
+        <v>5.909999847412109</v>
       </c>
       <c r="H9">
-        <v>60498713</v>
+        <v>136895573</v>
       </c>
       <c r="I9" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J9">
         <v>781096980</v>
@@ -1700,22 +1589,22 @@
         <v>42735</v>
       </c>
       <c r="D10">
-        <v>45.97999954223633</v>
+        <v>7.389999866485596</v>
       </c>
       <c r="E10">
-        <v>53.06000137329102</v>
+        <v>7.190000057220459</v>
       </c>
       <c r="F10">
-        <v>53.20000076293945</v>
+        <v>7.420000076293945</v>
       </c>
       <c r="G10">
-        <v>45.61000061035156</v>
+        <v>6.929999828338623</v>
       </c>
       <c r="H10">
-        <v>50476952</v>
+        <v>136895573</v>
       </c>
       <c r="I10" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J10">
         <v>891686580</v>
@@ -1816,22 +1705,22 @@
         <v>42826</v>
       </c>
       <c r="D11">
-        <v>39.22581140273195</v>
+        <v>6.940000057220459</v>
       </c>
       <c r="E11">
-        <v>39.47163009643555</v>
+        <v>6.860000133514404</v>
       </c>
       <c r="F11">
-        <v>39.55064372641578</v>
+        <v>7.010000228881836</v>
       </c>
       <c r="G11">
-        <v>38.41811614637533</v>
+        <v>6.659999847412109</v>
       </c>
       <c r="H11">
-        <v>2850792605</v>
+        <v>136895573</v>
       </c>
       <c r="I11" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="J11">
         <v>842499329</v>
@@ -1932,22 +1821,22 @@
         <v>42917</v>
       </c>
       <c r="D12">
-        <v>102.0133622053498</v>
+        <v>6.699999809265137</v>
       </c>
       <c r="E12">
-        <v>96.09502410888672</v>
+        <v>6.960000038146973</v>
       </c>
       <c r="F12">
-        <v>103.6407392657914</v>
+        <v>6.989999771118164</v>
       </c>
       <c r="G12">
-        <v>95.4108561422248</v>
+        <v>6.510000228881836</v>
       </c>
       <c r="H12">
-        <v>931519242</v>
+        <v>136895573</v>
       </c>
       <c r="I12" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="J12">
         <v>813724754</v>
@@ -2048,22 +1937,22 @@
         <v>43008</v>
       </c>
       <c r="D13">
-        <v>34.39338093652559</v>
+        <v>5.25</v>
       </c>
       <c r="E13">
-        <v>33.61638259887695</v>
+        <v>5.849999904632568</v>
       </c>
       <c r="F13">
-        <v>35.08107037354011</v>
+        <v>6.010000228881836</v>
       </c>
       <c r="G13">
-        <v>32.32138309818511</v>
+        <v>5.139999866485596</v>
       </c>
       <c r="H13">
-        <v>457000000</v>
+        <v>136895573</v>
       </c>
       <c r="I13" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="J13">
         <v>640682281</v>
@@ -2164,22 +2053,22 @@
         <v>43099</v>
       </c>
       <c r="D14">
-        <v>8.751999855041504</v>
+        <v>5.78000020980835</v>
       </c>
       <c r="E14">
-        <v>9.208000183105469</v>
+        <v>6.510000228881836</v>
       </c>
       <c r="F14">
-        <v>9.28600025177002</v>
+        <v>6.71999979019165</v>
       </c>
       <c r="G14">
-        <v>8.696000099182129</v>
+        <v>5.78000020980835</v>
       </c>
       <c r="H14">
-        <v>766266033</v>
+        <v>136895573</v>
       </c>
       <c r="I14" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="J14">
         <v>713053677</v>
@@ -2280,22 +2169,22 @@
         <v>43190</v>
       </c>
       <c r="D15">
-        <v>35.97240561616163</v>
+        <v>5.570000171661377</v>
       </c>
       <c r="E15">
-        <v>31.91368293762207</v>
+        <v>5.420000076293945</v>
       </c>
       <c r="F15">
-        <v>36.75260893317965</v>
+        <v>5.679999828338623</v>
       </c>
       <c r="G15">
-        <v>31.53188151649943</v>
+        <v>5.050000190734863</v>
       </c>
       <c r="H15">
-        <v>5186523104</v>
+        <v>136895573</v>
       </c>
       <c r="I15" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="J15">
         <v>691854869</v>
@@ -2396,22 +2285,22 @@
         <v>43281</v>
       </c>
       <c r="D16">
-        <v>22.36372947692871</v>
+        <v>6.510000228881836</v>
       </c>
       <c r="E16">
-        <v>22.87315368652344</v>
+        <v>7.690000057220459</v>
       </c>
       <c r="F16">
-        <v>25.01273536682129</v>
+        <v>7.980000019073486</v>
       </c>
       <c r="G16">
-        <v>22.00713157653809</v>
+        <v>6.28000020980835</v>
       </c>
       <c r="H16">
-        <v>60308678</v>
+        <v>136895573</v>
       </c>
       <c r="I16" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="J16">
         <v>818482469</v>
@@ -2512,22 +2401,22 @@
         <v>43372</v>
       </c>
       <c r="D17">
-        <v>40.01662959399956</v>
+        <v>8.060000419616699</v>
       </c>
       <c r="E17">
-        <v>40.09360122680664</v>
+        <v>6.010000228881836</v>
       </c>
       <c r="F17">
-        <v>42.52247987457982</v>
+        <v>8.899999618530273</v>
       </c>
       <c r="G17">
-        <v>36.22792094161961</v>
+        <v>5.579999923706055</v>
       </c>
       <c r="H17">
-        <v>4757218036</v>
+        <v>136895573</v>
       </c>
       <c r="I17" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="J17">
         <v>1014074504</v>
@@ -2628,22 +2517,22 @@
         <v>43463</v>
       </c>
       <c r="D18">
-        <v>42.82212632249508</v>
+        <v>6.860000133514404</v>
       </c>
       <c r="E18">
-        <v>46.75239944458008</v>
+        <v>7.800000190734863</v>
       </c>
       <c r="F18">
-        <v>46.95784665825049</v>
+        <v>7.929999828338623</v>
       </c>
       <c r="G18">
-        <v>41.83955640128374</v>
+        <v>6.710000038146973</v>
       </c>
       <c r="H18">
-        <v>450687724</v>
+        <v>136895573</v>
       </c>
       <c r="I18" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J18">
         <v>882065543</v>
@@ -2744,22 +2633,22 @@
         <v>43554</v>
       </c>
       <c r="D19">
-        <v>83.62000274658203</v>
+        <v>12.06999969482422</v>
       </c>
       <c r="E19">
-        <v>104.0299987792969</v>
+        <v>12.94999980926514</v>
       </c>
       <c r="F19">
-        <v>104.9800033569336</v>
+        <v>13.57999992370606</v>
       </c>
       <c r="G19">
-        <v>82.03099822998047</v>
+        <v>11.1899995803833</v>
       </c>
       <c r="H19">
-        <v>168459019</v>
+        <v>136895573</v>
       </c>
       <c r="I19" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="J19">
         <v>1569968101</v>
@@ -2860,22 +2749,22 @@
         <v>43645</v>
       </c>
       <c r="D20">
-        <v>14.72999954223633</v>
+        <v>15.13000011444092</v>
       </c>
       <c r="E20">
-        <v>16.79999923706055</v>
+        <v>19.34000015258789</v>
       </c>
       <c r="F20">
-        <v>18.36000061035156</v>
+        <v>20.25</v>
       </c>
       <c r="G20">
-        <v>13.96000003814697</v>
+        <v>14.47000026702881</v>
       </c>
       <c r="H20">
-        <v>1435682333</v>
+        <v>136895573</v>
       </c>
       <c r="I20" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="J20">
         <v>1926140665</v>
@@ -2976,22 +2865,22 @@
         <v>43736</v>
       </c>
       <c r="D21">
-        <v>42.51583583355016</v>
+        <v>18.42000007629395</v>
       </c>
       <c r="E21">
-        <v>42.25590896606445</v>
+        <v>19.59000015258789</v>
       </c>
       <c r="F21">
-        <v>43.8557984628152</v>
+        <v>20.09000015258789</v>
       </c>
       <c r="G21">
-        <v>39.92553545962458</v>
+        <v>17.05999946594238</v>
       </c>
       <c r="H21">
-        <v>539679667</v>
+        <v>136895573</v>
       </c>
       <c r="I21" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="J21">
         <v>2423857679</v>
@@ -3104,22 +2993,22 @@
         <v>43827</v>
       </c>
       <c r="D22">
-        <v>74.30999755859375</v>
+        <v>19.45999908447266</v>
       </c>
       <c r="E22">
-        <v>78.51000213623047</v>
+        <v>18.60000038146973</v>
       </c>
       <c r="F22">
-        <v>80.26000213623047</v>
+        <v>24.20000076293945</v>
       </c>
       <c r="G22">
-        <v>70.55000305175781</v>
+        <v>18.45000076293945</v>
       </c>
       <c r="H22">
-        <v>201104117</v>
+        <v>136895573</v>
       </c>
       <c r="I22" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="J22">
         <v>2568319417</v>
@@ -3220,22 +3109,22 @@
         <v>43918</v>
       </c>
       <c r="D23">
-        <v>26.5</v>
+        <v>17.03000068664551</v>
       </c>
       <c r="E23">
-        <v>30.27000045776367</v>
+        <v>22.51000022888184</v>
       </c>
       <c r="F23">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="G23">
-        <v>21.67000007629395</v>
+        <v>16.42000007629395</v>
       </c>
       <c r="H23">
-        <v>2085418676</v>
+        <v>136895573</v>
       </c>
       <c r="I23" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="J23">
         <v>2271321202</v>
@@ -3348,22 +3237,22 @@
         <v>44009</v>
       </c>
       <c r="D24">
-        <v>256.4700012207031</v>
+        <v>28.21999931335449</v>
       </c>
       <c r="E24">
-        <v>280.75</v>
+        <v>31.09000015258789</v>
       </c>
       <c r="F24">
-        <v>287.8299865722656</v>
+        <v>31.79000091552734</v>
       </c>
       <c r="G24">
-        <v>250.9499969482422</v>
+        <v>27.81999969482422</v>
       </c>
       <c r="H24">
-        <v>50845151</v>
+        <v>136895573</v>
       </c>
       <c r="I24" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J24">
         <v>3706171796</v>
@@ -3476,22 +3365,22 @@
         <v>44100</v>
       </c>
       <c r="D25">
-        <v>142.1999969482422</v>
+        <v>29.46999931335449</v>
       </c>
       <c r="E25">
-        <v>135.75</v>
+        <v>34.90000152587891</v>
       </c>
       <c r="F25">
-        <v>158.7359924316406</v>
+        <v>35.90000152587891</v>
       </c>
       <c r="G25">
-        <v>133.8099975585938</v>
+        <v>28.05999946594238</v>
       </c>
       <c r="H25">
-        <v>158300823</v>
+        <v>136895573</v>
       </c>
       <c r="I25" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="J25">
         <v>3797454017</v>
@@ -3604,22 +3493,22 @@
         <v>44198</v>
       </c>
       <c r="D26">
-        <v>13.06822869381222</v>
+        <v>46.04999923706055</v>
       </c>
       <c r="E26">
-        <v>12.9540433883667</v>
+        <v>40.11000061035156</v>
       </c>
       <c r="F26">
-        <v>13.96076895395527</v>
+        <v>46.88999938964844</v>
       </c>
       <c r="G26">
-        <v>12.55140375814208</v>
+        <v>37.38000106811523</v>
       </c>
       <c r="H26">
-        <v>24347000000</v>
+        <v>136895573</v>
       </c>
       <c r="I26" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="J26">
         <v>6238661963</v>
@@ -3732,22 +3621,22 @@
         <v>44289</v>
       </c>
       <c r="D27">
-        <v>483.1199951171875</v>
+        <v>45.84000015258789</v>
       </c>
       <c r="E27">
-        <v>508.3399963378906</v>
+        <v>50.31000137329102</v>
       </c>
       <c r="F27">
-        <v>525.4400024414062</v>
+        <v>58.38000106811523</v>
       </c>
       <c r="G27">
-        <v>480.5</v>
+        <v>45.84000015258789</v>
       </c>
       <c r="H27">
-        <v>418600000</v>
+        <v>136895573</v>
       </c>
       <c r="I27" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="J27">
         <v>6646422546</v>
@@ -3860,22 +3749,22 @@
         <v>44380</v>
       </c>
       <c r="D28">
-        <v>578.8200073242188</v>
+        <v>56.04000091552734</v>
       </c>
       <c r="E28">
-        <v>596.02001953125</v>
+        <v>56.75</v>
       </c>
       <c r="F28">
-        <v>616.4500122070312</v>
+        <v>56.84000015258789</v>
       </c>
       <c r="G28">
-        <v>543.1699829101562</v>
+        <v>49.04999923706055</v>
       </c>
       <c r="H28">
-        <v>52693110</v>
+        <v>136895573</v>
       </c>
       <c r="I28" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="J28">
         <v>7495321935</v>
@@ -3988,22 +3877,22 @@
         <v>44471</v>
       </c>
       <c r="D29">
-        <v>604.239990234375</v>
+        <v>64.94000244140625</v>
       </c>
       <c r="E29">
-        <v>690.3099975585938</v>
+        <v>69.44000244140625</v>
       </c>
       <c r="F29">
-        <v>690.969970703125</v>
+        <v>70.94000244140625</v>
       </c>
       <c r="G29">
-        <v>594.6799926757812</v>
+        <v>62.56999969482422</v>
       </c>
       <c r="H29">
-        <v>424926346</v>
+        <v>136895573</v>
       </c>
       <c r="I29" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="J29">
         <v>8965926365</v>
@@ -4116,22 +4005,22 @@
         <v>44562</v>
       </c>
       <c r="D30">
-        <v>325.0862195438712</v>
+        <v>77.54000091552734</v>
       </c>
       <c r="E30">
-        <v>301.4620971679688</v>
+        <v>55.22000122070312</v>
       </c>
       <c r="F30">
-        <v>327.6551072192646</v>
+        <v>79.22000122070312</v>
       </c>
       <c r="G30">
-        <v>267.6011489591179</v>
+        <v>47.04000091552734</v>
       </c>
       <c r="H30">
-        <v>7433166379</v>
+        <v>136895573</v>
       </c>
       <c r="I30" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="J30">
         <v>10552573128</v>
@@ -4244,22 +4133,22 @@
         <v>44653</v>
       </c>
       <c r="D31">
-        <v>421.9831085808795</v>
+        <v>61.29000091552734</v>
       </c>
       <c r="E31">
-        <v>415.1985778808594</v>
+        <v>48.04000091552734</v>
       </c>
       <c r="F31">
-        <v>450.9733274615733</v>
+        <v>62.06999969482422</v>
       </c>
       <c r="G31">
-        <v>408.5746965536123</v>
+        <v>46.47000122070312</v>
       </c>
       <c r="H31">
-        <v>143182982</v>
+        <v>136895573</v>
       </c>
       <c r="I31" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="J31">
         <v>8131967561</v>
@@ -4500,22 +4389,22 @@
         <v>44835</v>
       </c>
       <c r="D33">
-        <v>89.61000061035156</v>
+        <v>49.68000030517578</v>
       </c>
       <c r="E33">
-        <v>80.51000213623047</v>
+        <v>48.5099983215332</v>
       </c>
       <c r="F33">
-        <v>97.31400299072266</v>
+        <v>56.66999816894531</v>
       </c>
       <c r="G33">
-        <v>75.53500366210938</v>
+        <v>44.52999877929688</v>
       </c>
       <c r="H33">
-        <v>323270704</v>
+        <v>136895573</v>
       </c>
       <c r="I33" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="J33">
         <v>6757359039</v>
@@ -4628,22 +4517,22 @@
         <v>44926</v>
       </c>
       <c r="D34">
-        <v>26.71999931335449</v>
+        <v>66.87000274658203</v>
       </c>
       <c r="E34">
-        <v>28.72999954223633</v>
+        <v>75.79000091552734</v>
       </c>
       <c r="F34">
-        <v>29.72999954223633</v>
+        <v>77.66000366210938</v>
       </c>
       <c r="G34">
-        <v>26.64999961853028</v>
+        <v>63.4900016784668</v>
       </c>
       <c r="H34">
-        <v>178998669</v>
+        <v>136895573</v>
       </c>
       <c r="I34" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="J34">
         <v>8892415040</v>
@@ -4756,22 +4645,22 @@
         <v>45017</v>
       </c>
       <c r="D35">
-        <v>27.09000015258789</v>
+        <v>94.80999755859376</v>
       </c>
       <c r="E35">
-        <v>28.3700008392334</v>
+        <v>79.69999694824219</v>
       </c>
       <c r="F35">
-        <v>30.20000076293945</v>
+        <v>96.16999816894533</v>
       </c>
       <c r="G35">
-        <v>25.52000045776367</v>
+        <v>75.86000061035156</v>
       </c>
       <c r="H35">
-        <v>48253392</v>
+        <v>136895573</v>
       </c>
       <c r="I35" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="J35">
         <v>13120021014</v>
@@ -4884,22 +4773,22 @@
         <v>45108</v>
       </c>
       <c r="D36">
-        <v>62.68228996223018</v>
+        <v>96.31999969482422</v>
       </c>
       <c r="E36">
-        <v>70.53733825683594</v>
+        <v>90.94000244140624</v>
       </c>
       <c r="F36">
-        <v>71.47598872124311</v>
+        <v>98.18000030517578</v>
       </c>
       <c r="G36">
-        <v>59.77740581347258</v>
+        <v>84.69999694824219</v>
       </c>
       <c r="H36">
-        <v>1122466035</v>
+        <v>136895573</v>
       </c>
       <c r="I36" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="J36">
         <v>13223916373</v>
@@ -5012,22 +4901,22 @@
         <v>45199</v>
       </c>
       <c r="D37">
-        <v>62.6169871617784</v>
+        <v>86.33999633789062</v>
       </c>
       <c r="E37">
-        <v>64.67326354980469</v>
+        <v>55.61000061035156</v>
       </c>
       <c r="F37">
-        <v>66.63478202323152</v>
+        <v>87.63999938964844</v>
       </c>
       <c r="G37">
-        <v>60.75970456328059</v>
+        <v>53.7400016784668</v>
       </c>
       <c r="H37">
-        <v>212968277</v>
+        <v>136895573</v>
       </c>
       <c r="I37" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="J37">
         <v>11844325075</v>
@@ -5140,22 +5029,22 @@
         <v>45290</v>
       </c>
       <c r="D38">
-        <v>1152.400024414062</v>
+        <v>68.16000366210938</v>
       </c>
       <c r="E38">
-        <v>1198.829956054688</v>
+        <v>60.86000061035156</v>
       </c>
       <c r="F38">
-        <v>1307.140014648438</v>
+        <v>71.05000305175781</v>
       </c>
       <c r="G38">
-        <v>1113.18994140625</v>
+        <v>59.34999847412109</v>
       </c>
       <c r="H38">
-        <v>24003656</v>
+        <v>136895573</v>
       </c>
       <c r="I38" t="s">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="J38">
         <v>9522577729</v>
@@ -5268,22 +5157,22 @@
         <v>45381</v>
       </c>
       <c r="D39">
-        <v>104.6600036621094</v>
+        <v>78.25</v>
       </c>
       <c r="E39">
-        <v>92.98000335693359</v>
+        <v>68.59999847412109</v>
       </c>
       <c r="F39">
-        <v>105.0100021362305</v>
+        <v>80.12999725341797</v>
       </c>
       <c r="G39">
-        <v>90.66999816894533</v>
+        <v>65.38999938964844</v>
       </c>
       <c r="H39">
-        <v>168459019</v>
+        <v>136895573</v>
       </c>
       <c r="I39" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="J39">
         <v>10760580622</v>
@@ -5396,22 +5285,22 @@
         <v>45472</v>
       </c>
       <c r="D40">
-        <v>53.97000122070312</v>
+        <v>57.88999938964844</v>
       </c>
       <c r="E40">
-        <v>52.63999938964844</v>
+        <v>53</v>
       </c>
       <c r="F40">
-        <v>65.87999725341797</v>
+        <v>63.20000076293945</v>
       </c>
       <c r="G40">
-        <v>50.29000091552734</v>
+        <v>47.58000183105469</v>
       </c>
       <c r="H40">
-        <v>42689006</v>
+        <v>136895573</v>
       </c>
       <c r="I40" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="J40">
         <v>7976315678</v>
@@ -5524,22 +5413,22 @@
         <v>45563</v>
       </c>
       <c r="D41">
-        <v>36.50313191135645</v>
+        <v>53.15999984741211</v>
       </c>
       <c r="E41">
-        <v>39.63111877441406</v>
+        <v>50.65999984741211</v>
       </c>
       <c r="F41">
-        <v>41.15769383693995</v>
+        <v>55.83000183105469</v>
       </c>
       <c r="G41">
-        <v>34.26814654717644</v>
+        <v>48.22999954223633</v>
       </c>
       <c r="H41">
-        <v>171080665</v>
+        <v>136895573</v>
       </c>
       <c r="I41" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="J41">
         <v>7373569964</v>
@@ -5652,22 +5541,22 @@
         <v>45654</v>
       </c>
       <c r="D42">
-        <v>12.96000003814697</v>
+        <v>57.2599983215332</v>
       </c>
       <c r="E42">
-        <v>14.22000026702881</v>
+        <v>57.02000045776367</v>
       </c>
       <c r="F42">
-        <v>15.34500026702881</v>
+        <v>61.88000106811523</v>
       </c>
       <c r="G42">
-        <v>12.61999988555908</v>
+        <v>52.61999893188477</v>
       </c>
       <c r="H42">
-        <v>453568899</v>
+        <v>136895573</v>
       </c>
       <c r="I42" t="s">
-        <v>78</v>
+        <v>42</v>
       </c>
       <c r="J42">
         <v>8134781480</v>
@@ -5780,22 +5669,22 @@
         <v>45745</v>
       </c>
       <c r="D43">
-        <v>187.8600006103516</v>
+        <v>52.22999954223633</v>
       </c>
       <c r="E43">
-        <v>184.4199981689453</v>
+        <v>48.93000030517578</v>
       </c>
       <c r="F43">
-        <v>198.3399963378907</v>
+        <v>53.18000030517578</v>
       </c>
       <c r="G43">
-        <v>161.3800048828125</v>
+        <v>34.68999862670898</v>
       </c>
       <c r="H43">
-        <v>10664912097</v>
+        <v>136895573</v>
       </c>
       <c r="I43" t="s">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="J43">
         <v>7622032456</v>
@@ -5908,22 +5797,22 @@
         <v>45836</v>
       </c>
       <c r="D44">
-        <v>105.0804770925983</v>
+        <v>48.22999954223633</v>
       </c>
       <c r="E44">
-        <v>103.1780242919922</v>
+        <v>49.83000183105469</v>
       </c>
       <c r="F44">
-        <v>109.3114367486601</v>
+        <v>56.75</v>
       </c>
       <c r="G44">
-        <v>101.4440230697358</v>
+        <v>48.09999847412109</v>
       </c>
       <c r="H44">
-        <v>199618386</v>
+        <v>136895573</v>
       </c>
       <c r="I44" t="s">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="J44">
         <v>6901502981</v>
